--- a/output/waypoints.xlsx
+++ b/output/waypoints.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RW31L</t>
+          <t>RW4L</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -496,23 +496,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SKORR</t>
+          <t>DEEZZ</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="D3" t="n">
         <v>250</v>
       </c>
       <c r="E3" t="n">
-        <v>40.6099889</v>
+        <v>41.1144444</v>
       </c>
       <c r="F3" t="n">
-        <v>-74.05833333333329</v>
+        <v>-73.7777777777777</v>
       </c>
       <c r="G3" t="n">
-        <v>23.96879612741434</v>
+        <v>52.67225404773848</v>
       </c>
     </row>
     <row r="4">
@@ -521,23 +521,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>METSS</t>
+          <t>HEERO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="D4" t="n">
         <v>250</v>
       </c>
       <c r="E4" t="n">
-        <v>40.5639667</v>
+        <v>41.1688556</v>
       </c>
       <c r="F4" t="n">
-        <v>-73.93417777777771</v>
+        <v>-74.1155805555555</v>
       </c>
       <c r="G4" t="n">
-        <v>35.63849904329952</v>
+        <v>81.6075371217603</v>
       </c>
     </row>
     <row r="5">
@@ -546,23 +546,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RNGRR</t>
+          <t>KURNL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="D5" t="n">
         <v>250</v>
       </c>
       <c r="E5" t="n">
-        <v>40.2301639</v>
+        <v>41.2013056</v>
       </c>
       <c r="F5" t="n">
-        <v>-74.2057472222222</v>
+        <v>-74.4584361111111</v>
       </c>
       <c r="G5" t="n">
-        <v>79.31491828247579</v>
+        <v>110.5331198455633</v>
       </c>
     </row>
     <row r="6">
@@ -571,23 +571,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ICHOL</t>
+          <t>CANDR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="D6" t="n">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E6" t="n">
-        <v>42.6421</v>
+        <v>40.9709861</v>
       </c>
       <c r="F6" t="n">
-        <v>-80.5039</v>
+        <v>-74.9598277777777</v>
       </c>
       <c r="G6" t="n">
-        <v>668.823913911001</v>
+        <v>159.7577583527783</v>
       </c>
     </row>
     <row r="7">
@@ -596,23 +596,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SMERF</t>
+          <t>TOWIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="D7" t="n">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E7" t="n">
-        <v>45.9211</v>
+        <v>40.5352111</v>
       </c>
       <c r="F7" t="n">
-        <v>-97.569</v>
+        <v>-75.40037777777771</v>
       </c>
       <c r="G7" t="n">
-        <v>2072.723408818603</v>
+        <v>220.8080496951212</v>
       </c>
     </row>
     <row r="8">
@@ -637,7 +637,7 @@
         <v>-122.319202777777</v>
       </c>
       <c r="G8" t="n">
-        <v>3961.987481785123</v>
+        <v>3995.206134997368</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>-122.318938888888</v>
       </c>
       <c r="G9" t="n">
-        <v>3965.480043140622</v>
+        <v>3998.698696352867</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +687,7 @@
         <v>-122.309421225789</v>
       </c>
       <c r="G10" t="n">
-        <v>3978.083981595867</v>
+        <v>4011.302634808112</v>
       </c>
     </row>
   </sheetData>
